--- a/ActionMap.xlsx
+++ b/ActionMap.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17D3CDE-7080-4152-B08C-99EE9EE4B1BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88375448-F808-4106-B35C-54508098B5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
   <dimension ref="B3:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,18 +755,14 @@
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
@@ -914,7 +910,9 @@
     </row>
     <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -996,7 +994,9 @@
     </row>
     <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1104,14 +1104,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <pageMargins left="0.51" right="0.25" top="2.09" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
